--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Insr</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H2">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I2">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J2">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N2">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O2">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P2">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q2">
-        <v>358.6136568049494</v>
+        <v>266.505382350178</v>
       </c>
       <c r="R2">
-        <v>3227.522911244545</v>
+        <v>2398.548441151602</v>
       </c>
       <c r="S2">
-        <v>0.08783948920980653</v>
+        <v>0.0425586239388383</v>
       </c>
       <c r="T2">
-        <v>0.08783948920980653</v>
+        <v>0.0425586239388383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H3">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I3">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J3">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>21.625471</v>
       </c>
       <c r="O3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P3">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q3">
-        <v>111.4901301574807</v>
+        <v>87.90985354039701</v>
       </c>
       <c r="R3">
-        <v>1003.411171417326</v>
+        <v>791.188681863573</v>
       </c>
       <c r="S3">
-        <v>0.02730859770433815</v>
+        <v>0.01403844967163985</v>
       </c>
       <c r="T3">
-        <v>0.02730859770433814</v>
+        <v>0.01403844967163985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H4">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I4">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J4">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N4">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O4">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P4">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q4">
-        <v>89.92526375139066</v>
+        <v>138.726727675326</v>
       </c>
       <c r="R4">
-        <v>809.327373762516</v>
+        <v>1248.540549077934</v>
       </c>
       <c r="S4">
-        <v>0.02202645963166863</v>
+        <v>0.02215346865168439</v>
       </c>
       <c r="T4">
-        <v>0.02202645963166863</v>
+        <v>0.02215346865168439</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H5">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I5">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J5">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N5">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O5">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P5">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q5">
-        <v>51.99608552620333</v>
+        <v>41.480441260354</v>
       </c>
       <c r="R5">
-        <v>467.96476973583</v>
+        <v>373.323971343186</v>
       </c>
       <c r="S5">
-        <v>0.01273601689970018</v>
+        <v>0.006624070721757034</v>
       </c>
       <c r="T5">
-        <v>0.01273601689970018</v>
+        <v>0.006624070721757032</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.466502</v>
+        <v>12.195321</v>
       </c>
       <c r="H6">
-        <v>46.399506</v>
+        <v>36.585963</v>
       </c>
       <c r="I6">
-        <v>0.1790656026593624</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="J6">
-        <v>0.1790656026593625</v>
+        <v>0.1045530182058664</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N6">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P6">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q6">
-        <v>119.0284155887693</v>
+        <v>120.096651242458</v>
       </c>
       <c r="R6">
-        <v>1071.255740298924</v>
+        <v>1080.869861182122</v>
       </c>
       <c r="S6">
-        <v>0.02915503921384896</v>
+        <v>0.01917840522194682</v>
       </c>
       <c r="T6">
-        <v>0.02915503921384896</v>
+        <v>0.01917840522194682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>121.823837</v>
       </c>
       <c r="I7">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J7">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N7">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O7">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P7">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q7">
-        <v>941.5551034655433</v>
+        <v>887.4088747930663</v>
       </c>
       <c r="R7">
-        <v>8473.995931189891</v>
+        <v>7986.679873137597</v>
       </c>
       <c r="S7">
-        <v>0.2306262401944264</v>
+        <v>0.1417115866451112</v>
       </c>
       <c r="T7">
-        <v>0.2306262401944264</v>
+        <v>0.1417115866451112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>121.823837</v>
       </c>
       <c r="I8">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J8">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>21.625471</v>
       </c>
       <c r="O8">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P8">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q8">
         <v>292.7219837946919</v>
       </c>
       <c r="R8">
-        <v>2634.497854152228</v>
+        <v>2634.497854152227</v>
       </c>
       <c r="S8">
-        <v>0.07169986153369533</v>
+        <v>0.04674519034883833</v>
       </c>
       <c r="T8">
-        <v>0.07169986153369531</v>
+        <v>0.04674519034883833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>121.823837</v>
       </c>
       <c r="I9">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J9">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N9">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O9">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P9">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q9">
-        <v>236.1025281913869</v>
+        <v>461.931868784274</v>
       </c>
       <c r="R9">
-        <v>2124.922753722482</v>
+        <v>4157.386819058466</v>
       </c>
       <c r="S9">
-        <v>0.05783138785691985</v>
+        <v>0.07376655779177957</v>
       </c>
       <c r="T9">
-        <v>0.05783138785691985</v>
+        <v>0.07376655779177956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>121.823837</v>
       </c>
       <c r="I10">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J10">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N10">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O10">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P10">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q10">
-        <v>136.5178898193928</v>
+        <v>138.1214569858238</v>
       </c>
       <c r="R10">
-        <v>1228.661008374535</v>
+        <v>1243.093112872414</v>
       </c>
       <c r="S10">
-        <v>0.03343894322535072</v>
+        <v>0.02205681211353658</v>
       </c>
       <c r="T10">
-        <v>0.03343894322535072</v>
+        <v>0.02205681211353658</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>121.823837</v>
       </c>
       <c r="I11">
-        <v>0.4701442034896005</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="J11">
-        <v>0.4701442034896006</v>
+        <v>0.3481403468256254</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N11">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O11">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P11">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q11">
-        <v>312.5140664009332</v>
+        <v>399.8974925221198</v>
       </c>
       <c r="R11">
-        <v>2812.626597608399</v>
+        <v>3599.077432699078</v>
       </c>
       <c r="S11">
-        <v>0.07654777067920819</v>
+        <v>0.06386019992635968</v>
       </c>
       <c r="T11">
-        <v>0.07654777067920819</v>
+        <v>0.06386019992635968</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H12">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I12">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J12">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N12">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O12">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P12">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q12">
-        <v>701.5624540368498</v>
+        <v>6.425549896878667</v>
       </c>
       <c r="R12">
-        <v>6314.062086331648</v>
+        <v>57.829949071908</v>
       </c>
       <c r="S12">
-        <v>0.1718419988809661</v>
+        <v>0.001026105211271797</v>
       </c>
       <c r="T12">
-        <v>0.171841998880966</v>
+        <v>0.001026105211271797</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H13">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I13">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J13">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>21.625471</v>
       </c>
       <c r="O13">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P13">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q13">
-        <v>218.1101802174602</v>
+        <v>2.119541246671333</v>
       </c>
       <c r="R13">
-        <v>1962.991621957142</v>
+        <v>19.075871220042</v>
       </c>
       <c r="S13">
-        <v>0.0534243090250771</v>
+        <v>0.0003384725593324646</v>
       </c>
       <c r="T13">
-        <v>0.05342430902507708</v>
+        <v>0.0003384725593324646</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H14">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I14">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J14">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N14">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O14">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P14">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q14">
-        <v>175.9224377549302</v>
+        <v>3.344756127804</v>
       </c>
       <c r="R14">
-        <v>1583.301939794372</v>
+        <v>30.102805150236</v>
       </c>
       <c r="S14">
-        <v>0.04309076572993407</v>
+        <v>0.0005341288680740236</v>
       </c>
       <c r="T14">
-        <v>0.04309076572993407</v>
+        <v>0.0005341288680740235</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H15">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I15">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J15">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N15">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O15">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P15">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q15">
-        <v>101.7208928602344</v>
+        <v>1.000109801582667</v>
       </c>
       <c r="R15">
-        <v>915.4880357421099</v>
+        <v>9.000988214244</v>
       </c>
       <c r="S15">
-        <v>0.02491570273819291</v>
+        <v>0.0001597089580996767</v>
       </c>
       <c r="T15">
-        <v>0.0249157027381929</v>
+        <v>0.0001597089580996767</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>30.25740066666667</v>
+        <v>0.294034</v>
       </c>
       <c r="H16">
-        <v>90.77220199999999</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="I16">
-        <v>0.3503093126863761</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="J16">
-        <v>0.3503093126863762</v>
+        <v>0.002520814511987321</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.695884666666667</v>
+        <v>9.847764666666666</v>
       </c>
       <c r="N16">
-        <v>23.087654</v>
+        <v>29.543294</v>
       </c>
       <c r="O16">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="P16">
-        <v>0.162817642142644</v>
+        <v>0.1834323441929172</v>
       </c>
       <c r="Q16">
-        <v>232.8574658437898</v>
+        <v>2.895577635998667</v>
       </c>
       <c r="R16">
-        <v>2095.717192594108</v>
+        <v>26.060198723988</v>
       </c>
       <c r="S16">
-        <v>0.05703653631220598</v>
+        <v>0.0004623989152093587</v>
       </c>
       <c r="T16">
-        <v>0.05703653631220597</v>
+        <v>0.0004623989152093587</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H17">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I17">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J17">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.18647466666667</v>
+        <v>21.85308466666666</v>
       </c>
       <c r="N17">
-        <v>69.55942400000001</v>
+        <v>65.559254</v>
       </c>
       <c r="O17">
-        <v>0.4905436214732101</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="P17">
-        <v>0.49054362147321</v>
+        <v>0.407053040353553</v>
       </c>
       <c r="Q17">
-        <v>0.963057954104889</v>
+        <v>1385.404405510214</v>
       </c>
       <c r="R17">
-        <v>8.667521586944</v>
+        <v>12468.63964959193</v>
       </c>
       <c r="S17">
-        <v>0.0002358931880110351</v>
+        <v>0.2212372019558189</v>
       </c>
       <c r="T17">
-        <v>0.0002358931880110351</v>
+        <v>0.2212372019558189</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H18">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I18">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J18">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>21.625471</v>
       </c>
       <c r="O18">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="P18">
-        <v>0.1525061055767782</v>
+        <v>0.1342711086924142</v>
       </c>
       <c r="Q18">
-        <v>0.2994070488251112</v>
+        <v>456.9915148002353</v>
       </c>
       <c r="R18">
-        <v>2.694663439426</v>
+        <v>4112.923633202118</v>
       </c>
       <c r="S18">
-        <v>7.33373136676662E-05</v>
+        <v>0.0729776256303451</v>
       </c>
       <c r="T18">
-        <v>7.333731366766617E-05</v>
+        <v>0.0729776256303451</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H19">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I19">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J19">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.814195333333333</v>
+        <v>11.375406</v>
       </c>
       <c r="N19">
-        <v>17.442586</v>
+        <v>34.126218</v>
       </c>
       <c r="O19">
-        <v>0.1230077653359797</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="P19">
-        <v>0.1230077653359796</v>
+        <v>0.2118874139822907</v>
       </c>
       <c r="Q19">
-        <v>0.2414945412351111</v>
+        <v>721.158492142116</v>
       </c>
       <c r="R19">
-        <v>2.173450871116</v>
+        <v>6490.426429279044</v>
       </c>
       <c r="S19">
-        <v>5.915211745710615E-05</v>
+        <v>0.1151628263441543</v>
       </c>
       <c r="T19">
-        <v>5.915211745710615E-05</v>
+        <v>0.1151628263441543</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.04153533333333333</v>
+        <v>63.396286</v>
       </c>
       <c r="H20">
-        <v>0.124606</v>
+        <v>190.188858</v>
       </c>
       <c r="I20">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="J20">
-        <v>0.0004808811646609453</v>
+        <v>0.5435095184737091</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.361851666666666</v>
+        <v>3.401340666666667</v>
       </c>
       <c r="N20">
-        <v>10.085555</v>
+        <v>10.204022</v>
       </c>
       <c r="O20">
-        <v>0.07112486547138804</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="P20">
-        <v>0.07112486547138802</v>
+        <v>0.06335609277882483</v>
       </c>
       <c r="Q20">
-        <v>0.1396356295922222</v>
+        <v>215.6323656874306</v>
       </c>
       <c r="R20">
-        <v>1.25672066633</v>
+        <v>1940.691291186876</v>
       </c>
       <c r="S20">
-        <v>3.420260814423413E-05</v>
+        <v>0.03443463947859472</v>
       </c>
       <c r="T20">
-        <v>3.420260814423412E-05</v>
+        <v>0.03443463947859472</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>63.396286</v>
+      </c>
+      <c r="H21">
+        <v>190.188858</v>
+      </c>
+      <c r="I21">
+        <v>0.5435095184737091</v>
+      </c>
+      <c r="J21">
+        <v>0.5435095184737091</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.847764666666666</v>
+      </c>
+      <c r="N21">
+        <v>29.543294</v>
+      </c>
+      <c r="O21">
+        <v>0.1834323441929172</v>
+      </c>
+      <c r="P21">
+        <v>0.1834323441929172</v>
+      </c>
+      <c r="Q21">
+        <v>624.3117052686946</v>
+      </c>
+      <c r="R21">
+        <v>5618.805347418252</v>
+      </c>
+      <c r="S21">
+        <v>0.09969722506479607</v>
+      </c>
+      <c r="T21">
+        <v>0.09969722506479607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.148871</v>
+      </c>
+      <c r="H22">
+        <v>0.446613</v>
+      </c>
+      <c r="I22">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J22">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.85308466666666</v>
+      </c>
+      <c r="N22">
+        <v>65.559254</v>
+      </c>
+      <c r="O22">
+        <v>0.407053040353553</v>
+      </c>
+      <c r="P22">
+        <v>0.407053040353553</v>
+      </c>
+      <c r="Q22">
+        <v>3.253290567411333</v>
+      </c>
+      <c r="R22">
+        <v>29.279615106702</v>
+      </c>
+      <c r="S22">
+        <v>0.0005195226025127831</v>
+      </c>
+      <c r="T22">
+        <v>0.0005195226025127831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.148871</v>
+      </c>
+      <c r="H23">
+        <v>0.446613</v>
+      </c>
+      <c r="I23">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J23">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.208490333333334</v>
+      </c>
+      <c r="N23">
+        <v>21.625471</v>
+      </c>
+      <c r="O23">
+        <v>0.1342711086924142</v>
+      </c>
+      <c r="P23">
+        <v>0.1342711086924142</v>
+      </c>
+      <c r="Q23">
+        <v>1.073135164413667</v>
+      </c>
+      <c r="R23">
+        <v>9.658216479723</v>
+      </c>
+      <c r="S23">
+        <v>0.0001713704822584576</v>
+      </c>
+      <c r="T23">
+        <v>0.0001713704822584576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.148871</v>
+      </c>
+      <c r="H24">
+        <v>0.446613</v>
+      </c>
+      <c r="I24">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J24">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.375406</v>
+      </c>
+      <c r="N24">
+        <v>34.126218</v>
+      </c>
+      <c r="O24">
+        <v>0.2118874139822907</v>
+      </c>
+      <c r="P24">
+        <v>0.2118874139822907</v>
+      </c>
+      <c r="Q24">
+        <v>1.693468066626</v>
+      </c>
+      <c r="R24">
+        <v>15.241212599634</v>
+      </c>
+      <c r="S24">
+        <v>0.0002704323265984476</v>
+      </c>
+      <c r="T24">
+        <v>0.0002704323265984476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.04153533333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.124606</v>
-      </c>
-      <c r="I21">
-        <v>0.0004808811646609453</v>
-      </c>
-      <c r="J21">
-        <v>0.0004808811646609453</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.695884666666667</v>
-      </c>
-      <c r="N21">
-        <v>23.087654</v>
-      </c>
-      <c r="O21">
-        <v>0.162817642142644</v>
-      </c>
-      <c r="P21">
-        <v>0.162817642142644</v>
-      </c>
-      <c r="Q21">
-        <v>0.3196511349248889</v>
-      </c>
-      <c r="R21">
-        <v>2.876860214324</v>
-      </c>
-      <c r="S21">
-        <v>7.829593738090366E-05</v>
-      </c>
-      <c r="T21">
-        <v>7.829593738090366E-05</v>
+      <c r="G25">
+        <v>0.148871</v>
+      </c>
+      <c r="H25">
+        <v>0.446613</v>
+      </c>
+      <c r="I25">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J25">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.401340666666667</v>
+      </c>
+      <c r="N25">
+        <v>10.204022</v>
+      </c>
+      <c r="O25">
+        <v>0.06335609277882483</v>
+      </c>
+      <c r="P25">
+        <v>0.06335609277882483</v>
+      </c>
+      <c r="Q25">
+        <v>0.5063609863873333</v>
+      </c>
+      <c r="R25">
+        <v>4.557248877486</v>
+      </c>
+      <c r="S25">
+        <v>8.086150683681809E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.086150683681809E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.148871</v>
+      </c>
+      <c r="H26">
+        <v>0.446613</v>
+      </c>
+      <c r="I26">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="J26">
+        <v>0.001276301982811731</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.847764666666666</v>
+      </c>
+      <c r="N26">
+        <v>29.543294</v>
+      </c>
+      <c r="O26">
+        <v>0.1834323441929172</v>
+      </c>
+      <c r="P26">
+        <v>0.1834323441929172</v>
+      </c>
+      <c r="Q26">
+        <v>1.466046573691333</v>
+      </c>
+      <c r="R26">
+        <v>13.194419163222</v>
+      </c>
+      <c r="S26">
+        <v>0.000234115064605224</v>
+      </c>
+      <c r="T26">
+        <v>0.000234115064605224</v>
       </c>
     </row>
   </sheetData>
